--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,61 +424,61 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B0017RYAGU</v>
+        <v>B00F0C2LBO</v>
       </c>
       <c r="B2" t="str">
-        <v>Daphne's Black Lab Driver Headcover | Premium Golf Club Covers | Funny Golf Club Covers | Stylish Protection for Your Clubs | Men's Golf Gear | Driver Headcover for Men and Women</v>
+        <v>Allstar Performance (ALL46300-6-5) #3 Line, 6", Pack of 5</v>
       </c>
       <c r="C2" t="str">
-        <v>8663.00</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>8663.00</v>
+        <v>16045.00</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>+16045.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B00VB5FU9Y</v>
+        <v>B000CN77TM</v>
       </c>
       <c r="B3" t="str">
-        <v>Daphne's Headcovers Doodle Driver Headcover | Premium Driver Headcovers | Funny Golf Club Covers | Stylish Protection for Your Clubs | Men's Golf Gear | Driver Headcover for Men and Women</v>
+        <v>Energy Suspension 3.9102G GM Pull Thru Bump Stop</v>
       </c>
       <c r="C3" t="str">
-        <v>6312.00</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>6312.00</v>
+        <v>3234.00</v>
       </c>
       <c r="E3" t="str">
-        <v>0.00</v>
+        <v>+3234.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B0017VU1QO</v>
+        <v>B07GSFZVQT</v>
       </c>
       <c r="B4" t="str">
-        <v>Daphne's Gopher Hybrid/Utility Covers - Golf Club Cover - Plush - Orange, Brown - Animal Print - Golf</v>
+        <v>Bose S1 Pro System Slip Cover</v>
       </c>
       <c r="C4" t="str">
-        <v>4462.00</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>4462.00</v>
+        <v>8262.00</v>
       </c>
       <c r="E4" t="str">
-        <v>0.00</v>
+        <v>+8262.00</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>B08VZSZ1VM</v>
+        <v>B01N9K5GKO</v>
       </c>
       <c r="B5" t="str">
-        <v>Daphne's Novelty Animal Golf Headcovers - Happy Cow Golf Driver Headcover, Black/White</v>
+        <v>Title not found</v>
       </c>
       <c r="C5" t="str">
         <v>0</v>
@@ -490,9 +490,111 @@
         <v>0.00</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>B0BXZ91QTS</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Title not found</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B07WHKCZJR</v>
+      </c>
+      <c r="B7" t="str">
+        <v>QSC KS118 Direct Radiating 18" Subwoofer</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>35900.00</v>
+      </c>
+      <c r="E7" t="str">
+        <v>+35900.00</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B07HZ1T3WK</v>
+      </c>
+      <c r="B8" t="str">
+        <v>QSC CP12 1000W 12" Powered Speaker</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B06Y4BT184</v>
+      </c>
+      <c r="B9" t="str">
+        <v>QSC K10.2 Active 10" Powered 2000 Watt Loudspeaker</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <v>39424.00</v>
+      </c>
+      <c r="E9" t="str">
+        <v>+39424.00</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B0018D84YC</v>
+      </c>
+      <c r="B10" t="str">
+        <v>QSC GX5 1400-Watt Power Amplifier</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>42998.00</v>
+      </c>
+      <c r="E10" t="str">
+        <v>+42998.00</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B0018D63KO</v>
+      </c>
+      <c r="B11" t="str">
+        <v>QSC GX3 300-Watt Power Amplifier</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <v>47999.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v>+47999.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>